--- a/form.xlsx
+++ b/form.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\surau-display-python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\surau-display-firebase-html-js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AB37FD6-FFE2-4F5A-A34A-70A284281757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C9C607-6938-41A0-B1D9-1AF6D685CF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16305" yWindow="-720" windowWidth="16410" windowHeight="21795" xr2:uid="{420A7371-52F8-4D95-B51A-159BC51F95AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{420A7371-52F8-4D95-B51A-159BC51F95AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,12 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,6 +708,312 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>413846</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>184720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>597776</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>144517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090A0996-9565-0100-A3A1-4DDCACEDECB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="413846" y="5978548"/>
+          <a:ext cx="6903982" cy="6055797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342497</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523986</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772B4B7D-02F7-A37A-D9FF-9C3BCB98C64C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId7">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="40000" contrast="40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="20475821">
+          <a:off x="953411" y="6667503"/>
+          <a:ext cx="1403316" cy="663463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>329359</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>118244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>510848</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A93118F-E16C-0EEC-CD2D-1D50B08DA5E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId7">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="40000" contrast="40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="20475821">
+          <a:off x="940273" y="8198072"/>
+          <a:ext cx="1403316" cy="663463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>413844</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>155764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>222876</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>151086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5AA515-3CAC-BA54-A6AF-EE6167FB9821}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="413844" y="12807592"/>
+          <a:ext cx="10805480" cy="5329322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526548</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>137680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>256443</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>59647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE143C62-E848-632A-0C4E-559EA0426F31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9040433" y="14498449"/>
+          <a:ext cx="1554298" cy="2207967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>421393</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>124662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>388327</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>109170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC5D507-0AAB-EBA0-E4C6-92EAB9951972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9543412" y="16771431"/>
+          <a:ext cx="575069" cy="937008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1031,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A540533-9C49-4208-A7C4-DD3DD55FFB0F}">
-  <dimension ref="B8:G21"/>
+  <dimension ref="B8:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U90" sqref="U90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,15 +1389,12 @@
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
